--- a/FinalProject/Reports/Budget_Opportunity.xlsx
+++ b/FinalProject/Reports/Budget_Opportunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\project-lab-1\FinalProject\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B4CB4F-1AEE-4991-8706-5CDD3ED616DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41C906A-A7ED-470A-AC8D-8F0FE1301713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
-  <si>
-    <t>Project Lab 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Direct Labor(DL):</t>
   </si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>Ribbon Cable</t>
+  </si>
+  <si>
+    <t>Future Project</t>
+  </si>
+  <si>
+    <t>SoloGood Foxeer Night Cat 3 Micro FPV</t>
   </si>
 </sst>
 </file>
@@ -693,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,44 +710,44 @@
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>15</v>
@@ -757,9 +760,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>15</v>
@@ -772,9 +775,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>15</v>
@@ -787,29 +790,30 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4">
         <f>SUM(D5:D7)</f>
         <v>7200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -819,9 +823,9 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="7">
@@ -829,20 +833,20 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
         <v>40</v>
@@ -855,9 +859,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>15</v>
@@ -870,9 +874,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
         <v>200</v>
@@ -887,7 +891,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" s="7">
@@ -901,29 +905,29 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2"/>
       <c r="D19" s="4">
         <f>BOM!G2</f>
-        <v>343.86</v>
+        <v>397.85</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2"/>
       <c r="D21" s="7">
         <f>D19</f>
-        <v>343.86</v>
+        <v>397.85</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -932,19 +936,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="8">
         <v>449.99</v>
@@ -957,17 +961,17 @@
         <v>26.999400000000001</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="8">
         <v>415</v>
@@ -990,7 +994,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="10">
         <v>99</v>
@@ -1005,7 +1009,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="11">
         <f>99</f>
@@ -1021,7 +1025,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2"/>
       <c r="D28" s="7">
@@ -1036,17 +1040,17 @@
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2"/>
       <c r="D30" s="12">
         <f>SUM(D11,D17,D21,D28)</f>
-        <v>16070.759400000001</v>
+        <v>16124.749400000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="5">
@@ -1054,20 +1058,20 @@
       </c>
       <c r="D31" s="6">
         <f>D30*C31</f>
-        <v>8838.9176700000007</v>
+        <v>8868.6121700000003</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="12">
         <f>SUM(D30:D31)</f>
-        <v>24909.677070000002</v>
+        <v>24993.361570000001</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4EE099-1E8F-4729-AB8E-96179BC225E5}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,27 +1106,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1131,20 +1135,20 @@
         <v>149.99</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E24" si="0">B2*C2</f>
+        <f t="shared" ref="E2:E25" si="0">B2*C2</f>
         <v>149.99</v>
       </c>
       <c r="G2" s="15">
-        <f>ROUND(SUM(E2:E24),2)</f>
-        <v>343.86</v>
+        <f>ROUND(SUM(E2:E25),2)</f>
+        <v>397.85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1153,7 +1157,7 @@
         <v>49.95</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
@@ -1162,7 +1166,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1171,7 +1175,7 @@
         <v>14.99</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -1180,7 +1184,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1189,7 +1193,7 @@
         <v>0.49</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -1198,7 +1202,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1207,7 +1211,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -1216,7 +1220,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1225,7 +1229,7 @@
         <v>0.41</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -1234,7 +1238,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1243,7 +1247,7 @@
         <v>41.25</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -1252,7 +1256,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1261,7 +1265,7 @@
         <v>0.17</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -1270,7 +1274,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1279,7 +1283,7 @@
         <v>0.1</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -1288,7 +1292,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1297,7 +1301,7 @@
         <v>0.42</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -1306,7 +1310,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1315,7 +1319,7 @@
         <v>0.8</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -1324,7 +1328,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1333,7 +1337,7 @@
         <v>0.42</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -1342,7 +1346,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1351,7 +1355,7 @@
         <v>0.83</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -1360,7 +1364,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1369,7 +1373,7 @@
         <v>0.69</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -1378,7 +1382,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1387,7 +1391,7 @@
         <v>0.5</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -1396,7 +1400,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1405,7 +1409,7 @@
         <v>0.1</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -1414,7 +1418,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1423,7 +1427,7 @@
         <v>1.93</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -1432,7 +1436,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1441,7 +1445,7 @@
         <v>0.8</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -1450,7 +1454,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1459,7 +1463,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -1468,7 +1472,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1477,7 +1481,7 @@
         <v>13.3</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -1486,7 +1490,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1495,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -1504,7 +1508,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1513,7 +1517,7 @@
         <v>0.88</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -1522,7 +1526,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1531,11 +1535,29 @@
         <v>2.29</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>2.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>53.99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>53.99</v>
       </c>
     </row>
   </sheetData>
